--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_5.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B23896-34BF-4FBF-BE66-E3AE50109F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DA962-E41A-4626-BF7D-05CCCEE78581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,10 @@
     <t>Region de Valparaíso</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD85"/>
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>754240.75</v>
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>656905.5</v>
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>707158.375</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>565172.25</v>
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>1136884.75</v>
@@ -745,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>870908.25</v>
@@ -774,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>792355.3125</v>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>743660.5625</v>
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>712353.5625</v>
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>534281.375</v>
@@ -890,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>766695.3125</v>
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>575349.4375</v>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <v>869401.25</v>
@@ -977,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>754429.1875</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16">
         <v>891236.875</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>807986.8125</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <v>974226</v>
@@ -1093,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>657941.6875</v>
@@ -1122,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20">
         <v>853412</v>
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>576610.875</v>
@@ -1180,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22">
         <v>837156.8125</v>
@@ -1209,7 +1209,7 @@
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23">
         <v>620702.3125</v>
@@ -1238,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24">
         <v>843202.6875</v>
@@ -1267,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>619126.25</v>
@@ -1296,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26">
         <v>658313.9375</v>
@@ -1325,7 +1325,7 @@
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <v>551947.75</v>
@@ -1354,7 +1354,7 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28">
         <v>750585.9375</v>
@@ -1383,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <v>511797.34375</v>
@@ -1412,7 +1412,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <v>642248.3125</v>
@@ -1441,7 +1441,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31">
         <v>576830</v>
@@ -1470,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32">
         <v>612113.75</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>442212.46875</v>
@@ -1528,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34">
         <v>665787.4375</v>
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>580619.5625</v>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36">
         <v>769802.4375</v>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <v>603561.4375</v>
@@ -1644,7 +1644,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38">
         <v>734139.25</v>
@@ -1673,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39">
         <v>533692.6875</v>
@@ -1702,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40">
         <v>638392.75</v>
@@ -1731,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41">
         <v>523180.40625</v>
@@ -1760,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42">
         <v>995033.6875</v>
@@ -1789,7 +1789,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43">
         <v>741609.875</v>
@@ -1818,7 +1818,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44">
         <v>822660.25</v>
@@ -1847,7 +1847,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H45">
         <v>519818.65625</v>
@@ -1876,7 +1876,7 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46">
         <v>703469.375</v>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47">
         <v>593954.3125</v>
@@ -1934,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48">
         <v>757883.875</v>
@@ -1963,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49">
         <v>640306.0625</v>
@@ -1992,7 +1992,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50">
         <v>592731.375</v>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H51">
         <v>555100.25</v>
@@ -2050,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52">
         <v>595544.375</v>
@@ -2079,7 +2079,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <v>542368.3125</v>
@@ -2108,7 +2108,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54">
         <v>643226.6875</v>
@@ -2137,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H55">
         <v>616962.5</v>
@@ -2166,7 +2166,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56">
         <v>817794.625</v>
@@ -2195,7 +2195,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <v>740805.1875</v>
@@ -2224,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58">
         <v>734840.8125</v>
@@ -2253,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H59">
         <v>618519.1875</v>
@@ -2282,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H60">
         <v>713011.25</v>
@@ -2311,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H61">
         <v>522462.5</v>
@@ -2340,7 +2340,7 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62">
         <v>747287.8125</v>
@@ -2369,7 +2369,7 @@
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63">
         <v>576089.125</v>
@@ -2398,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H64">
         <v>658212.5</v>
@@ -2427,7 +2427,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65">
         <v>560560.6875</v>
@@ -2456,7 +2456,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66">
         <v>617703.0625</v>
@@ -2485,7 +2485,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H67">
         <v>575494.8125</v>
@@ -2514,7 +2514,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <v>623576.375</v>
@@ -2543,7 +2543,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H69">
         <v>541594.1875</v>
@@ -2572,7 +2572,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70">
         <v>856839.5</v>
@@ -2601,7 +2601,7 @@
         <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H71">
         <v>697210.25</v>
@@ -2630,7 +2630,7 @@
         <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H72">
         <v>689234.1875</v>
@@ -2659,7 +2659,7 @@
         <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H73">
         <v>574083.1875</v>
@@ -2688,7 +2688,7 @@
         <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74">
         <v>642526.875</v>
@@ -2717,7 +2717,7 @@
         <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H75">
         <v>540383.5</v>
@@ -2746,7 +2746,7 @@
         <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H76">
         <v>828973.8125</v>
@@ -2775,7 +2775,7 @@
         <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H77">
         <v>653659.75</v>
@@ -2795,7 +2795,7 @@
         <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H78">
         <v>797949.625</v>
@@ -2815,7 +2815,7 @@
         <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H79">
         <v>655451.1875</v>
@@ -2835,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H80">
         <v>864177.4375</v>
@@ -2855,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H81">
         <v>740526.3125</v>
